--- a/biology/Botanique/Achyranthes/Achyranthes.xlsx
+++ b/biology/Botanique/Achyranthes/Achyranthes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Achyranthes est un genre de plantes de la famille des Amaranthaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (12 août 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (12 août 2017) :
 Achyranthes arborescens R. Br.
 Achyranthes aspera L.
 Achyranthes atollensis St. John †
@@ -550,7 +566,7 @@
 Achyranthes mutica Gray
 Achyranthes splendens Mart. ex Moq.
 Achyranthes talbotii Hutch. &amp; Dalziel
-Selon Catalogue of Life                                   (12 août 2017)[3] :
+Selon Catalogue of Life                                   (12 août 2017) :
 Achyranthes abyssinica Nees
 Achyranthes alba Eckl. &amp; Zeyh. ex Moq.
 Achyranthes alternifolia L.
@@ -602,14 +618,14 @@
 Achyranthes virgata (Jacq.) Zeyh.
 Achyranthes viridis Lopr.
 Achyranthes winteri Peter
-Selon GRIN            (12 août 2017)[4] :
+Selon GRIN            (12 août 2017) :
 Achyranthes aspera L.
 Achyranthes bidentata Blume
 Achyranthes fauriei H. Lév. &amp; Vaniot
 Achyranthes japonica (Miq.) Nakai
 Achyranthes longifolia (Makino) Makino
 Achyranthes mutica A. Gray
-Selon ITIS      (12 août 2017)[5] :
+Selon ITIS      (12 août 2017) :
 Achyranthes aspera L.
 Achyranthes atollensis H. St. John
 Achyranthes bidentata Blume
@@ -617,13 +633,13 @@
 Achyranthes japonica (Miq.) Nakai
 Achyranthes mutica A. Gray
 Achyranthes splendens Mart. ex Moq.
-Selon NCBI  (12 août 2017)[6] :
+Selon NCBI  (12 août 2017) :
 Achyranthes arborescens
 Achyranthes aspera
 variété Achyranthes aspera var. sicula
 Achyranthes bidentata
 Achyranthes japonica
-Selon The Plant List            (12 août 2017)[7] :
+Selon The Plant List            (12 août 2017) :
 Achyranthes arborescens R.Br.
 Achyranthes aspera L.
 Achyranthes bidentata Blume
@@ -636,7 +652,7 @@
 Achyranthes shahii M.R.Almeida &amp; S.M.Almeida
 Achyranthes splendens Mart. ex Moq.
 Achyranthes talbotii Hutch. &amp; Dalziel
-Selon Tropicos                                           (12 août 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (12 août 2017) (Attention liste brute contenant possiblement des synonymes) :
 Achyranthes abyssinica Nees
 Achyranthes acuminata E. Mey. ex Cooke &amp; Wright
 Achyranthes alba Eckl. &amp; Zeyh. ex Moq.
